--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,106 +40,106 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>illegal</t>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>creepy</t>
   </si>
   <si>
     <t>insane</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
     <t>sorry</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>addicted</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>behind</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>stupid</t>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>weird</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>serious</t>
   </si>
   <si>
     <t>dark</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>shocked</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>serious</t>
+    <t>least</t>
   </si>
   <si>
     <t>fake</t>
@@ -154,34 +154,43 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>good</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>powerful</t>
+    <t>live</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
   <si>
     <t>love</t>
@@ -190,40 +199,34 @@
     <t>wow</t>
   </si>
   <si>
-    <t>first</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>right</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>documentary</t>
   </si>
   <si>
-    <t>recommend</t>
+    <t>dilemma</t>
   </si>
   <si>
     <t>media</t>
@@ -235,19 +238,13 @@
     <t>watch</t>
   </si>
   <si>
-    <t>twitter</t>
+    <t>…</t>
+  </si>
+  <si>
+    <t>’</t>
   </si>
   <si>
     <t>watching</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -616,10 +613,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -680,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -730,10 +727,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -777,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -795,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>45</v>
@@ -827,13 +824,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -845,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K6">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L6">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -869,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -877,13 +874,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9326923076923077</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -895,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K7">
-        <v>0.7666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -919,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -927,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -945,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K8">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -969,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -977,13 +974,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8947368421052632</v>
+        <v>0.875</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -995,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>49</v>
@@ -1027,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8939393939393939</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C10">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1045,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>50</v>
@@ -1077,13 +1074,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8461538461538461</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1101,13 +1098,13 @@
         <v>51</v>
       </c>
       <c r="K11">
-        <v>0.6333333333333333</v>
+        <v>0.6133333333333333</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1119,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1127,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8181818181818182</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1145,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K12">
-        <v>0.6111111111111112</v>
+        <v>0.6</v>
       </c>
       <c r="L12">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M12">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1169,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1177,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8181818181818182</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -1195,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K13">
-        <v>0.5866666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L13">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1219,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1227,13 +1224,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7647058823529411</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1245,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K14">
-        <v>0.5714285714285714</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1269,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1277,13 +1274,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.75</v>
+        <v>0.725</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1295,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K15">
-        <v>0.4736842105263158</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1319,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1327,13 +1324,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1345,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K16">
-        <v>0.3333333333333333</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="L16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1369,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1377,13 +1374,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6875</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1401,13 +1398,13 @@
         <v>57</v>
       </c>
       <c r="K17">
-        <v>0.3125</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1419,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1427,13 +1424,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6666666666666666</v>
+        <v>0.65</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1445,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K18">
-        <v>0.303030303030303</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1469,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1477,13 +1474,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6666666666666666</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1495,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>59</v>
@@ -1504,10 +1501,10 @@
         <v>0.2592592592592592</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1519,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1527,13 +1524,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1545,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K20">
-        <v>0.1967213114754098</v>
+        <v>0.25</v>
       </c>
       <c r="L20">
         <v>12</v>
@@ -1569,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1577,13 +1574,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5833333333333334</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1601,13 +1598,13 @@
         <v>61</v>
       </c>
       <c r="K21">
-        <v>0.1951219512195122</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1619,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1627,13 +1624,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5714285714285714</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1645,19 +1642,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K22">
-        <v>0.1864406779661017</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1669,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1677,13 +1674,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5579710144927537</v>
+        <v>0.5289855072463768</v>
       </c>
       <c r="C23">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D23">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1695,19 +1692,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K23">
-        <v>0.1692307692307692</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1719,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1727,37 +1724,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.55</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>11</v>
-      </c>
-      <c r="D24">
-        <v>11</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>9</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K24">
-        <v>0.1666666666666667</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="L24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1769,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1777,13 +1774,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1795,19 +1792,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K25">
-        <v>0.1408450704225352</v>
+        <v>0.1375227686703097</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="M25">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1819,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>61</v>
+        <v>947</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1827,13 +1824,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5319148936170213</v>
+        <v>0.5</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1845,19 +1842,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K26">
-        <v>0.1293260473588342</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="L26">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="M26">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1869,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>956</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1877,13 +1874,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4782608695652174</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1895,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K27">
-        <v>0.1052631578947368</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="L27">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M27">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1919,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1927,13 +1924,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4642857142857143</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1945,19 +1942,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K28">
-        <v>0.08833922261484099</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1969,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>258</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1980,10 +1977,10 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1995,19 +1992,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K29">
-        <v>0.07058823529411765</v>
+        <v>0.1060070671378092</v>
       </c>
       <c r="L29">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2019,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>79</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2027,37 +2024,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>16</v>
-      </c>
-      <c r="D30">
-        <v>16</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>19</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K30">
-        <v>0.06626506024096386</v>
+        <v>0.05079365079365079</v>
       </c>
       <c r="L30">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="M30">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2069,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>620</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2101,7 +2098,7 @@
         <v>71</v>
       </c>
       <c r="K31">
-        <v>0.05740740740740741</v>
+        <v>0.0466867469879518</v>
       </c>
       <c r="L31">
         <v>31</v>
@@ -2119,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>509</v>
+        <v>633</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2127,13 +2124,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4166666666666667</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2145,19 +2142,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K32">
-        <v>0.05681818181818182</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2169,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>581</v>
+        <v>516</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2177,13 +2174,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2195,31 +2192,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K33">
-        <v>0.04379562043795621</v>
+        <v>0.04390243902439024</v>
       </c>
       <c r="L33">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>131</v>
+        <v>588</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2227,13 +2224,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3529411764705883</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2245,31 +2242,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K34">
-        <v>0.04117647058823529</v>
+        <v>0.02707373271889401</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="N34">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>326</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2280,10 +2277,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2295,31 +2292,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K35">
-        <v>0.02857142857142857</v>
+        <v>0.02182284980744544</v>
       </c>
       <c r="L35">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>306</v>
+        <v>762</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2327,13 +2324,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3333333333333333</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2345,31 +2342,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K36">
-        <v>0.02710495963091119</v>
+        <v>0.01759530791788856</v>
       </c>
       <c r="L36">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="M36">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="N36">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>1687</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2377,13 +2374,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1923076923076923</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2395,31 +2392,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>63</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K37">
-        <v>0.02051282051282051</v>
-      </c>
-      <c r="L37">
-        <v>16</v>
-      </c>
-      <c r="M37">
-        <v>17</v>
-      </c>
-      <c r="N37">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O37">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>764</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
